--- a/第02组/项目计划表.xlsx
+++ b/第02组/项目计划表.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -37,6 +38,60 @@
   </si>
   <si>
     <t>日期：2018.10.08 第六周周一</t>
+  </si>
+  <si>
+    <t>练富珊</t>
+  </si>
+  <si>
+    <t>黄皓燊</t>
+  </si>
+  <si>
+    <t>黄成志</t>
+  </si>
+  <si>
+    <t>郑嘉蔚</t>
+  </si>
+  <si>
+    <t>郑瑞贤</t>
+  </si>
+  <si>
+    <t>辛伟达</t>
+  </si>
+  <si>
+    <t>前端手机用例设计</t>
+  </si>
+  <si>
+    <t>前端手机用例图设计</t>
+  </si>
+  <si>
+    <t>前端手机用户</t>
+  </si>
+  <si>
+    <t>前端手机用户用例图设计</t>
+  </si>
+  <si>
+    <t>前端手机用户用例图设计</t>
+  </si>
+  <si>
+    <t>前端PC用户用例图设计</t>
+  </si>
+  <si>
+    <t>信息管理员用户用例图设计</t>
+  </si>
+  <si>
+    <t>系统管理员用户用例图设计</t>
+  </si>
+  <si>
+    <t>用例图设计[前端手机用户]</t>
+  </si>
+  <si>
+    <t>用例图设计[前端PC用户]</t>
+  </si>
+  <si>
+    <t>用户用例图设计[系统管理员]</t>
+  </si>
+  <si>
+    <t>用例图设计[系统管理员]</t>
   </si>
 </sst>
 </file>
@@ -46,175 +101,141 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
+  <fonts count="20">
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF800080"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -222,192 +243,163 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
       </patternFill>
     </fill>
   </fills>
@@ -417,7 +409,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -432,7 +426,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -441,16 +437,20 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -465,7 +465,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -480,7 +482,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -491,7 +495,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -500,7 +506,9 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -515,7 +523,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -530,169 +540,168 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -703,62 +712,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
     <cellStyle name="标题 1" xfId="19" builtinId="16"/>
     <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
     <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
     <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1047,196 +1050,229 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <cols>
-    <col min="2" max="2" width="30.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="2" max="2" width="30.55566608" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="18.61199008" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="24.01807605" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D20"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/第02组/项目计划表.xlsx
+++ b/第02组/项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>用例图设计[系统管理员]</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>用例图绘制[前端手机用户]</t>
+  </si>
+  <si>
+    <t>用例图用例图绘制[前端手机用户]</t>
+  </si>
+  <si>
+    <t>用例图绘制[前端PC用户]</t>
+  </si>
+  <si>
+    <t>用例图绘制[系统管理员]</t>
+  </si>
+  <si>
+    <t>总结：任务基本已完成，细节有待改善。</t>
   </si>
 </sst>
 </file>
@@ -250,156 +268,187 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -409,9 +458,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -426,9 +473,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -437,9 +482,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -448,9 +491,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -465,9 +506,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -482,9 +521,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -495,9 +532,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -506,9 +541,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -523,9 +556,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -540,9 +571,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1054,7 +1083,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1091,9 +1120,11 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
@@ -1101,9 +1132,11 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4">
@@ -1111,9 +1144,11 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
@@ -1121,9 +1156,11 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
@@ -1131,9 +1168,11 @@
         <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
@@ -1141,14 +1180,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>

--- a/第02组/项目计划表.xlsx
+++ b/第02组/项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -110,6 +110,61 @@
   </si>
   <si>
     <t>总结：任务基本已完成，细节有待改善。</t>
+  </si>
+  <si>
+    <t>修改用例图[]</t>
+  </si>
+  <si>
+    <t>完成用例描述[]</t>
+  </si>
+  <si>
+    <t>修改用例图[前端手机用户用例图]</t>
+  </si>
+  <si>
+    <t>编写用例描述[]</t>
+  </si>
+  <si>
+    <t>修改用例图[前端PC用户用例图]</t>
+  </si>
+  <si>
+    <t>修改用例图[系统管理员用例图]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>编写用例描述[]</t>
+    </r>
+  </si>
+  <si>
+    <t>编写用例描述[用户注册</t>
+  </si>
+  <si>
+    <t>编写用例描述[用户登陆</t>
+  </si>
+  <si>
+    <t>编写用例描述[注册群]</t>
+  </si>
+  <si>
+    <t>编写用例描述[用户注册]</t>
+  </si>
+  <si>
+    <t>编写用例描述[用户登陆]</t>
+  </si>
+  <si>
+    <t>编写用例描述[手机端用户注册]</t>
+  </si>
+  <si>
+    <t>编写用例描述[手机端用户登陆]</t>
+  </si>
+  <si>
+    <t>编写用例描述[手机端注册群]</t>
+  </si>
+  <si>
+    <t>编写用例描述[手机端创建群]</t>
   </si>
 </sst>
 </file>
@@ -122,7 +177,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <name val="宋体"/>
@@ -254,6 +309,11 @@
       <name val="宋体"/>
       <scheme val="minor"/>
       <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <color theme="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -458,7 +518,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -473,7 +535,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -482,7 +546,9 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -491,7 +557,9 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -506,7 +574,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -521,7 +591,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -532,7 +604,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -541,7 +615,9 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -556,7 +632,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -571,7 +649,9 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -723,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,6 +818,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1083,7 +1166,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1224,38 +1307,62 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>

--- a/第02组/项目计划表.xlsx
+++ b/第02组/项目计划表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>编写用例描述[手机端创建群]</t>
+  </si>
+  <si>
+    <t>初步完成</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1169,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A19" sqref="A19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1313,7 +1316,9 @@
       <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
@@ -1323,7 +1328,9 @@
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
@@ -1333,7 +1340,9 @@
       <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
@@ -1343,7 +1352,9 @@
       <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
@@ -1353,7 +1364,9 @@
       <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
@@ -1363,12 +1376,14 @@
       <c r="B18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>

--- a/第02组/项目计划表.xlsx
+++ b/第02组/项目计划表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -168,6 +168,39 @@
   </si>
   <si>
     <t>初步完成</t>
+  </si>
+  <si>
+    <t>编写用例描述[手机端退出群][手机端发布群公告]</t>
+  </si>
+  <si>
+    <t>编写用例描述[手机端个人信息维护][]</t>
+  </si>
+  <si>
+    <t>编写用例描述[手机端用户注册][]</t>
+  </si>
+  <si>
+    <t>编写用例描述[手机端用户注册][]</t>
+  </si>
+  <si>
+    <t>编写用例描述[手机端创建群][手机端加入群]</t>
+  </si>
+  <si>
+    <t>编写用例描述[PC端用户注册][PC端忘记密码]</t>
+  </si>
+  <si>
+    <t>编写用例描述[PC端创建群][PC端修改群信息]</t>
+  </si>
+  <si>
+    <t>编写用例描述[登录管理系统][查看用户信息]</t>
+  </si>
+  <si>
+    <t>编写用例描述[开启注册用户][禁用注册用户]</t>
+  </si>
+  <si>
+    <t>总结：</t>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第七周周三</t>
   </si>
 </sst>
 </file>
@@ -521,9 +554,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -538,9 +569,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -549,9 +578,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -560,9 +587,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -577,9 +602,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -594,9 +617,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -607,9 +628,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -618,9 +637,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -635,9 +652,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -652,9 +667,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1166,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D20"/>
+      <selection activeCell="A21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1395,12 +1408,110 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A29:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/项目计划表.xlsx
+++ b/第02组/项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>日期：2018.10.10 第七周周三</t>
+  </si>
+  <si>
+    <t>总结：任务基本已完成，细节有待改善。</t>
+  </si>
+  <si>
+    <t>日期：2018.10.11 第七周周四</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -569,7 +577,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -578,7 +588,9 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -587,7 +599,9 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -602,7 +616,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -617,7 +633,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -628,7 +646,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -637,7 +657,9 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -652,7 +674,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -667,7 +691,9 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1179,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D21"/>
+    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1437,7 +1463,9 @@
       <c r="B23" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4">
@@ -1447,7 +1475,9 @@
       <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4">
@@ -1457,7 +1487,9 @@
       <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
@@ -1467,7 +1499,9 @@
       <c r="B26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4">
@@ -1477,7 +1511,9 @@
       <c r="B27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4">
@@ -1487,12 +1523,14 @@
       <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1504,14 +1542,100 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A19:D20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A39:D40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>

--- a/第02组/项目计划表.xlsx
+++ b/第02组/项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -207,6 +207,36 @@
   </si>
   <si>
     <t>日期：2018.10.11 第七周周四</t>
+  </si>
+  <si>
+    <t>编写用例描述[PC端用户注册]</t>
+  </si>
+  <si>
+    <t>编写用例描述[PC端用户登陆]</t>
+  </si>
+  <si>
+    <t>编写用例描述[登录管理系统]</t>
+  </si>
+  <si>
+    <t>编写用例描述[查看用户信息]</t>
+  </si>
+  <si>
+    <t>设计界面原型[手机端用户注册]</t>
+  </si>
+  <si>
+    <t>设计界面原型[手机端用户登陆]</t>
+  </si>
+  <si>
+    <t>设计界面原型[PC端用户注册]</t>
+  </si>
+  <si>
+    <t>设计界面原型[PC端用户登陆]</t>
+  </si>
+  <si>
+    <t>设计界面原型[登录管理系统]</t>
+  </si>
+  <si>
+    <t>设计界面原型[查看用户信息]</t>
   </si>
 </sst>
 </file>
@@ -560,9 +590,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -577,9 +605,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -588,9 +614,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -599,9 +623,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -616,9 +638,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -633,9 +653,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -646,9 +664,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -657,9 +673,7 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -674,9 +688,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -691,9 +703,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1207,8 +1217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A16" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1568,7 +1578,9 @@
       <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
@@ -1576,7 +1588,9 @@
       <c r="A34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
@@ -1584,7 +1598,9 @@
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
@@ -1592,7 +1608,9 @@
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
@@ -1600,7 +1618,9 @@
       <c r="A37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
@@ -1608,7 +1628,9 @@
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>

--- a/第02组/项目计划表.xlsx
+++ b/第02组/项目计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>设计界面原型[查看用户信息]</t>
+  </si>
+  <si>
+    <t>总结：大部分时间用于熟悉软件、讨论原型,任务基本完成。</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -605,7 +610,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -614,7 +621,9 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -623,7 +632,9 @@
       <bottom style="medium">
         <color theme="4" tint="0.499980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -638,7 +649,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -653,7 +666,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -664,7 +679,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -673,7 +690,9 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -688,7 +707,9 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -703,7 +724,9 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1217,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
@@ -1581,7 +1604,9 @@
       <c r="B33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4">
@@ -1591,7 +1616,9 @@
       <c r="B34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4">
@@ -1601,7 +1628,9 @@
       <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4">
@@ -1611,7 +1640,9 @@
       <c r="B36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4">
@@ -1621,7 +1652,9 @@
       <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
@@ -1631,12 +1664,14 @@
       <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
